--- a/Rapport/MC-DA_Classes.xlsx
+++ b/Rapport/MC-DA_Classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="9315" windowHeight="1380"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="9315" windowHeight="1380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MC-DA" sheetId="1" r:id="rId1"/>
@@ -11757,7 +11757,7 @@
   <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:G1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I503" sqref="I503"/>
     </sheetView>
   </sheetViews>
@@ -55503,11 +55503,14 @@
   <sheetPr codeName="Feuil2" filterMode="1"/>
   <dimension ref="A1:F1897"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E834" sqref="E430:E834"/>
+    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
+      <selection activeCell="F1219" sqref="F1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="48.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
